--- a/Code/Results/Cases/Case_6_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_26/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.75583610876401</v>
+        <v>29.75583610876398</v>
       </c>
       <c r="C2">
-        <v>16.3049201904455</v>
+        <v>16.30492019044545</v>
       </c>
       <c r="D2">
-        <v>2.526788881150722</v>
+        <v>2.526788881150517</v>
       </c>
       <c r="E2">
-        <v>5.468516088202736</v>
+        <v>5.468516088202604</v>
       </c>
       <c r="F2">
-        <v>46.11670662408929</v>
+        <v>46.11670662408926</v>
       </c>
       <c r="G2">
-        <v>2.128817910460929</v>
+        <v>2.128817910461063</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.738956694514797</v>
+        <v>5.738956694514796</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.910429346603228</v>
+        <v>7.910429346603198</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.17116011513694</v>
+        <v>15.17116011513696</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.07736486414845</v>
+        <v>28.0773648641484</v>
       </c>
       <c r="C3">
-        <v>15.11816875934208</v>
+        <v>15.11816875934212</v>
       </c>
       <c r="D3">
-        <v>2.361254188704697</v>
+        <v>2.361254188704641</v>
       </c>
       <c r="E3">
         <v>5.479778910547639</v>
       </c>
       <c r="F3">
-        <v>44.70208177676029</v>
+        <v>44.70208177676004</v>
       </c>
       <c r="G3">
-        <v>2.142405654779761</v>
+        <v>2.142405654779893</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.794161191034692</v>
+        <v>5.794161191034754</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.741090868585291</v>
+        <v>7.74109086858525</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.40141209984295</v>
+        <v>15.40141209984284</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.02476751551433</v>
+        <v>27.02476751551428</v>
       </c>
       <c r="C4">
-        <v>14.3564782622579</v>
+        <v>14.35647826225798</v>
       </c>
       <c r="D4">
-        <v>2.318686519545131</v>
+        <v>2.318686519545015</v>
       </c>
       <c r="E4">
-        <v>5.487561564834846</v>
+        <v>5.487561564834976</v>
       </c>
       <c r="F4">
-        <v>43.86175896807807</v>
+        <v>43.86175896807796</v>
       </c>
       <c r="G4">
-        <v>2.150910292052498</v>
+        <v>2.1509102920521</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.829105861584383</v>
+        <v>5.829105861584411</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.640969095137269</v>
+        <v>7.640969095137256</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.54709154927254</v>
+        <v>15.54709154927247</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.59061254274559</v>
+        <v>26.59061254274564</v>
       </c>
       <c r="C5">
-        <v>14.05099381043956</v>
+        <v>14.05099381043953</v>
       </c>
       <c r="D5">
-        <v>2.312774350326897</v>
+        <v>2.312774350326926</v>
       </c>
       <c r="E5">
-        <v>5.490943269041897</v>
+        <v>5.490943269041899</v>
       </c>
       <c r="F5">
-        <v>43.52640933766159</v>
+        <v>43.52640933766187</v>
       </c>
       <c r="G5">
-        <v>2.154420803650571</v>
+        <v>2.154420803650175</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.843618601101368</v>
+        <v>5.843618601101435</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.601138673893233</v>
+        <v>7.601138673893312</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.60752925729042</v>
+        <v>15.60752925729051</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.51821820446543</v>
+        <v>26.51821820446541</v>
       </c>
       <c r="C6">
-        <v>14.00062101218427</v>
+        <v>14.00062101218425</v>
       </c>
       <c r="D6">
-        <v>2.311848187300873</v>
+        <v>2.311848187300866</v>
       </c>
       <c r="E6">
-        <v>5.491517284492719</v>
+        <v>5.491517284492723</v>
       </c>
       <c r="F6">
-        <v>43.47115282591248</v>
+        <v>43.47115282591255</v>
       </c>
       <c r="G6">
-        <v>2.15500654142101</v>
+        <v>2.155006541421143</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.846045133121153</v>
+        <v>5.846045133121151</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.594583513812386</v>
+        <v>7.594583513812478</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.61762943306462</v>
+        <v>15.61762943306465</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27.01893294876592</v>
+        <v>27.01893294876589</v>
       </c>
       <c r="C7">
-        <v>14.35221258579524</v>
+        <v>14.35221258579519</v>
       </c>
       <c r="D7">
-        <v>2.318603008560196</v>
+        <v>2.318603008560224</v>
       </c>
       <c r="E7">
-        <v>5.4876063301742</v>
+        <v>5.487606330174004</v>
       </c>
       <c r="F7">
-        <v>43.8572076304201</v>
+        <v>43.85720763041995</v>
       </c>
       <c r="G7">
-        <v>2.150957449430524</v>
+        <v>2.150957449430129</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.829300470981988</v>
+        <v>5.829300470981956</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.640427997789756</v>
+        <v>7.640427997789716</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.54790230243597</v>
+        <v>15.54790230243588</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.18182459308718</v>
+        <v>29.18182459308722</v>
       </c>
       <c r="C8">
-        <v>15.90248398090212</v>
+        <v>15.90248398090213</v>
       </c>
       <c r="D8">
-        <v>2.470200646505245</v>
+        <v>2.470200646505399</v>
       </c>
       <c r="E8">
-        <v>5.472214434255313</v>
+        <v>5.472214434255446</v>
       </c>
       <c r="F8">
-        <v>45.62305764130516</v>
+        <v>45.62305764130519</v>
       </c>
       <c r="G8">
-        <v>2.133472018098693</v>
+        <v>2.133472018098558</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.757778984398099</v>
+        <v>5.757778984398102</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.851241802307098</v>
+        <v>7.851241802307181</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.24965029208991</v>
+        <v>15.24965029208985</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.24050987540905</v>
+        <v>33.24050987540902</v>
       </c>
       <c r="C9">
-        <v>18.688745135835</v>
+        <v>18.68874513583487</v>
       </c>
       <c r="D9">
-        <v>2.871605079621764</v>
+        <v>2.871605079621742</v>
       </c>
       <c r="E9">
-        <v>5.449332418904886</v>
+        <v>5.449332418904884</v>
       </c>
       <c r="F9">
-        <v>49.3132750572732</v>
+        <v>49.31327505727334</v>
       </c>
       <c r="G9">
-        <v>2.100256516814301</v>
+        <v>2.100256516814701</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.625414721793095</v>
+        <v>5.625414721793157</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.29535821177353</v>
+        <v>8.29535821177358</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.69965051311516</v>
+        <v>14.69965051311536</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>36.10871639130092</v>
       </c>
       <c r="C10">
-        <v>20.59483338771901</v>
+        <v>20.59483338771906</v>
       </c>
       <c r="D10">
-        <v>3.159380241051743</v>
+        <v>3.159380241051526</v>
       </c>
       <c r="E10">
-        <v>5.437683431737506</v>
+        <v>5.437683431737439</v>
       </c>
       <c r="F10">
-        <v>52.17272787278808</v>
+        <v>52.17272787278805</v>
       </c>
       <c r="G10">
-        <v>2.076173487739454</v>
+        <v>2.076173487739319</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.532304806183327</v>
+        <v>5.532304806183387</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.641040609274093</v>
+        <v>8.641040609274043</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.31838594913858</v>
+        <v>14.3183859491386</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.39078408853081</v>
+        <v>37.39078408853082</v>
       </c>
       <c r="C11">
-        <v>21.43513952084828</v>
+        <v>21.43513952084826</v>
       </c>
       <c r="D11">
-        <v>3.289754837835645</v>
+        <v>3.289754837835623</v>
       </c>
       <c r="E11">
-        <v>5.433709491405281</v>
+        <v>5.433709491405283</v>
       </c>
       <c r="F11">
-        <v>53.50983807016827</v>
+        <v>53.50983807016825</v>
       </c>
       <c r="G11">
-        <v>2.065198359868743</v>
+        <v>2.065198359868872</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.490673999334891</v>
+        <v>5.490673999334856</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.802837364972635</v>
+        <v>8.802837364972662</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.1504626563497</v>
+        <v>14.15046265634967</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.87332758076553</v>
+        <v>37.8733275807655</v>
       </c>
       <c r="C12">
-        <v>21.74987016262728</v>
+        <v>21.74987016262726</v>
       </c>
       <c r="D12">
-        <v>3.339150802014611</v>
+        <v>3.339150802014756</v>
       </c>
       <c r="E12">
-        <v>5.432416914140836</v>
+        <v>5.43241691414077</v>
       </c>
       <c r="F12">
-        <v>54.02190496699976</v>
+        <v>54.02190496699983</v>
       </c>
       <c r="G12">
-        <v>2.061030739589697</v>
+        <v>2.061030739589955</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.474997447190956</v>
+        <v>5.47499744719089</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.864802401791041</v>
+        <v>8.864802401791014</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.08773761389295</v>
+        <v>14.087737613893</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.76952784844828</v>
+        <v>37.76952784844821</v>
       </c>
       <c r="C13">
-        <v>21.68223516580903</v>
+        <v>21.6822351658089</v>
       </c>
       <c r="D13">
-        <v>3.328509499177879</v>
+        <v>3.328509499177681</v>
       </c>
       <c r="E13">
-        <v>5.432685458040873</v>
+        <v>5.43268545804094</v>
       </c>
       <c r="F13">
-        <v>53.91135731195802</v>
+        <v>53.911357311958</v>
       </c>
       <c r="G13">
-        <v>2.061928980822193</v>
+        <v>2.061928980822457</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.478370034791557</v>
+        <v>5.478370034791643</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.10120679522339</v>
+        <v>14.10120679522345</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.43054002492561</v>
+        <v>37.43054002492551</v>
       </c>
       <c r="C14">
-        <v>21.46109986380677</v>
+        <v>21.46109986380676</v>
       </c>
       <c r="D14">
-        <v>3.29381749613615</v>
+        <v>3.293817496136191</v>
       </c>
       <c r="E14">
-        <v>5.433598755478748</v>
+        <v>5.433598755479071</v>
       </c>
       <c r="F14">
-        <v>53.55184771571172</v>
+        <v>53.55184771571177</v>
       </c>
       <c r="G14">
-        <v>2.064855774480959</v>
+        <v>2.064855774481488</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.489382614163718</v>
+        <v>5.489382614163867</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.807921011172743</v>
+        <v>8.807921011172825</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.1452844344853</v>
+        <v>14.14528443448557</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.22252795520078</v>
+        <v>37.22252795520083</v>
       </c>
       <c r="C15">
-        <v>21.32520779506088</v>
+        <v>21.32520779506089</v>
       </c>
       <c r="D15">
-        <v>3.272574398422792</v>
+        <v>3.272574398422969</v>
       </c>
       <c r="E15">
-        <v>5.434186541698681</v>
+        <v>5.434186541698814</v>
       </c>
       <c r="F15">
-        <v>53.33240220993933</v>
+        <v>53.33240220993932</v>
       </c>
       <c r="G15">
-        <v>2.06664672848985</v>
+        <v>2.066646728489848</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.496139096969618</v>
+        <v>5.496139096969624</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.781365577198743</v>
+        <v>8.781365577198766</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.17239822434149</v>
+        <v>14.17239822434148</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.02449758034608</v>
+        <v>36.02449758034614</v>
       </c>
       <c r="C16">
-        <v>20.5394092347828</v>
+        <v>20.53940923478293</v>
       </c>
       <c r="D16">
-        <v>3.150857557860477</v>
+        <v>3.150857557860499</v>
       </c>
       <c r="E16">
-        <v>5.437971560051201</v>
+        <v>5.437971560051066</v>
       </c>
       <c r="F16">
-        <v>52.08611528674695</v>
+        <v>52.08611528674689</v>
       </c>
       <c r="G16">
-        <v>2.076889625908577</v>
+        <v>2.076889625908433</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.535038739055005</v>
+        <v>5.535038739054947</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.630561535728795</v>
+        <v>8.630561535728756</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.32947669727589</v>
+        <v>14.32947669727579</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.28391577111122</v>
+        <v>35.28391577111119</v>
       </c>
       <c r="C17">
-        <v>20.05073631024062</v>
+        <v>20.05073631024064</v>
       </c>
       <c r="D17">
-        <v>3.076118592226341</v>
+        <v>3.076118592226197</v>
       </c>
       <c r="E17">
-        <v>5.440647059481145</v>
+        <v>5.440647059481144</v>
       </c>
       <c r="F17">
-        <v>51.3311740363347</v>
+        <v>51.3311740363346</v>
       </c>
       <c r="G17">
-        <v>2.08316247592799</v>
+        <v>2.083162475927721</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.559077337801872</v>
+        <v>5.55907733780193</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.539237463790304</v>
+        <v>8.539237463790265</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.42729596114071</v>
+        <v>14.42729596114074</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.85578997094845</v>
+        <v>34.85578997094849</v>
       </c>
       <c r="C18">
-        <v>19.76711773697975</v>
+        <v>19.76711773697986</v>
       </c>
       <c r="D18">
-        <v>3.033073116736894</v>
+        <v>3.033073116736905</v>
       </c>
       <c r="E18">
-        <v>5.442309140742775</v>
+        <v>5.442309140742837</v>
       </c>
       <c r="F18">
-        <v>50.90033196614534</v>
+        <v>50.90033196614523</v>
       </c>
       <c r="G18">
-        <v>2.086769203077093</v>
+        <v>2.08676920307696</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.572973062134716</v>
+        <v>5.572973062134748</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.487134573649909</v>
+        <v>8.487134573649895</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.48407286981533</v>
+        <v>14.4840728698152</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.71045499030305</v>
+        <v>34.71045499030308</v>
       </c>
       <c r="C19">
-        <v>19.67064145910466</v>
+        <v>19.6706414591046</v>
       </c>
       <c r="D19">
-        <v>3.018485922797325</v>
+        <v>3.018485922797296</v>
       </c>
       <c r="E19">
-        <v>5.442892462654736</v>
+        <v>5.442892462654738</v>
       </c>
       <c r="F19">
-        <v>50.75502397907968</v>
+        <v>50.75502397907974</v>
       </c>
       <c r="G19">
-        <v>2.087990408944135</v>
+        <v>2.08799040894387</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.577690286765087</v>
+        <v>5.577690286765068</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.469565258990508</v>
+        <v>8.469565258990549</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.50338298702626</v>
+        <v>14.50338298702627</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.36297393428614</v>
+        <v>35.36297393428615</v>
       </c>
       <c r="C20">
-        <v>20.10301743413885</v>
+        <v>20.10301743413874</v>
       </c>
       <c r="D20">
-        <v>3.084079956599349</v>
+        <v>3.084079956599288</v>
       </c>
       <c r="E20">
-        <v>5.440349353629543</v>
+        <v>5.440349353629345</v>
       </c>
       <c r="F20">
-        <v>51.41118583653741</v>
+        <v>51.41118583653744</v>
       </c>
       <c r="G20">
-        <v>2.082494908775729</v>
+        <v>2.082494908775594</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.556511320031833</v>
+        <v>5.556511320031777</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.54891489528522</v>
+        <v>8.548914895285211</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.53018578699589</v>
+        <v>37.5301857869959</v>
       </c>
       <c r="C21">
-        <v>21.52614365995883</v>
+        <v>21.52614365995871</v>
       </c>
       <c r="D21">
-        <v>3.304005759304614</v>
+        <v>3.30400575930446</v>
       </c>
       <c r="E21">
-        <v>5.433324541246428</v>
+        <v>5.433324541246362</v>
       </c>
       <c r="F21">
-        <v>53.65728392293067</v>
+        <v>53.65728392293062</v>
       </c>
       <c r="G21">
-        <v>2.063996495280563</v>
+        <v>2.063996495280555</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.486145700638432</v>
+        <v>5.486145700638527</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.820679961843499</v>
+        <v>8.820679961843519</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.13231364782204</v>
+        <v>14.13231364782213</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>38.98293083791683</v>
       </c>
       <c r="C22">
-        <v>22.43620643948319</v>
+        <v>22.43620643948296</v>
       </c>
       <c r="D22">
-        <v>3.447953391744124</v>
+        <v>3.44795339174402</v>
       </c>
       <c r="E22">
-        <v>5.429984280146781</v>
+        <v>5.42998428014665</v>
       </c>
       <c r="F22">
-        <v>55.15901753846998</v>
+        <v>55.15901753846997</v>
       </c>
       <c r="G22">
-        <v>2.051834082555622</v>
+        <v>2.051834082555358</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.44066221834047</v>
+        <v>5.440662218340468</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.002384100829296</v>
+        <v>9.002384100829353</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.95145090945089</v>
+        <v>13.95145090945091</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.18481016360709</v>
+        <v>38.18481016360702</v>
       </c>
       <c r="C23">
-        <v>21.95218025617604</v>
+        <v>21.952180256176</v>
       </c>
       <c r="D23">
-        <v>3.371067123090449</v>
+        <v>3.371067123090335</v>
       </c>
       <c r="E23">
-        <v>5.43164416259093</v>
+        <v>5.431644162590868</v>
       </c>
       <c r="F23">
-        <v>54.3542088262131</v>
+        <v>54.35420882621302</v>
       </c>
       <c r="G23">
-        <v>2.058335315558373</v>
+        <v>2.058335315558502</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.464897385549023</v>
+        <v>5.464897385548931</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.905012347913425</v>
+        <v>8.905012347913404</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.04748625143923</v>
+        <v>14.04748625143924</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.32723909751703</v>
+        <v>35.32723909751694</v>
       </c>
       <c r="C24">
-        <v>20.07938949442361</v>
+        <v>20.07938949442348</v>
       </c>
       <c r="D24">
-        <v>3.080480871241903</v>
+        <v>3.080480871241789</v>
       </c>
       <c r="E24">
-        <v>5.440483562081069</v>
+        <v>5.440483562081202</v>
       </c>
       <c r="F24">
-        <v>51.37500262116883</v>
+        <v>51.37500262116874</v>
       </c>
       <c r="G24">
-        <v>2.082796714054793</v>
+        <v>2.082796714055056</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.55767117995916</v>
+        <v>5.557671179959187</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.544538483913714</v>
+        <v>8.544538483913747</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.4215596056528</v>
+        <v>14.4215596056529</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.16275838496879</v>
+        <v>32.16275838496882</v>
       </c>
       <c r="C25">
-        <v>17.96087606118445</v>
+        <v>17.96087606118451</v>
       </c>
       <c r="D25">
-        <v>2.764564157563389</v>
+        <v>2.764564157563361</v>
       </c>
       <c r="E25">
-        <v>5.454675410878299</v>
+        <v>5.454675410878427</v>
       </c>
       <c r="F25">
-        <v>48.2899326024647</v>
+        <v>48.2899326024648</v>
       </c>
       <c r="G25">
-        <v>2.109159116713994</v>
+        <v>2.109159116714129</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.660443248558628</v>
+        <v>5.66044324855872</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.171882332092045</v>
+        <v>8.171882332092094</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.84458065870358</v>
+        <v>14.84458065870362</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.75583610876398</v>
+        <v>22.71375940192628</v>
       </c>
       <c r="C2">
-        <v>16.30492019044545</v>
+        <v>13.66187461486063</v>
       </c>
       <c r="D2">
-        <v>2.526788881150517</v>
+        <v>3.913296586975203</v>
       </c>
       <c r="E2">
-        <v>5.468516088202604</v>
+        <v>6.679966926571137</v>
       </c>
       <c r="F2">
-        <v>46.11670662408926</v>
+        <v>28.5277346215917</v>
       </c>
       <c r="G2">
-        <v>2.128817910461063</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>37.57238657638746</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.990107620799491</v>
       </c>
       <c r="J2">
-        <v>5.738956694514796</v>
+        <v>12.11536526747746</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.43205510645643</v>
       </c>
       <c r="L2">
-        <v>7.910429346603198</v>
+        <v>5.602712695569277</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.17116011513696</v>
+        <v>7.779273135499563</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.70835354173266</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.0773648641484</v>
+        <v>21.30245384051008</v>
       </c>
       <c r="C3">
-        <v>15.11816875934212</v>
+        <v>12.76645258456018</v>
       </c>
       <c r="D3">
-        <v>2.361254188704641</v>
+        <v>3.875928257105187</v>
       </c>
       <c r="E3">
-        <v>5.479778910547639</v>
+        <v>6.699198820863335</v>
       </c>
       <c r="F3">
-        <v>44.70208177676004</v>
+        <v>27.87211646107584</v>
       </c>
       <c r="G3">
-        <v>2.142405654779893</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>36.37716422515649</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.23811959523674</v>
       </c>
       <c r="J3">
-        <v>5.794161191034754</v>
+        <v>11.9977917810553</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.34821675751577</v>
       </c>
       <c r="L3">
-        <v>7.74109086858525</v>
+        <v>5.635329358767468</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.40141209984284</v>
+        <v>7.580430823931207</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.88091661330088</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.02476751551428</v>
+        <v>20.38869811750406</v>
       </c>
       <c r="C4">
-        <v>14.35647826225798</v>
+        <v>12.18873865981206</v>
       </c>
       <c r="D4">
-        <v>2.318686519545015</v>
+        <v>3.854265076754204</v>
       </c>
       <c r="E4">
-        <v>5.487561564834976</v>
+        <v>6.71249266131631</v>
       </c>
       <c r="F4">
-        <v>43.86175896807796</v>
+        <v>27.47813412344764</v>
       </c>
       <c r="G4">
-        <v>2.1509102920521</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>35.64686669938564</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.396212252199803</v>
       </c>
       <c r="J4">
-        <v>5.829105861584411</v>
+        <v>11.93094953175413</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.3048901387299</v>
       </c>
       <c r="L4">
-        <v>7.640969095137256</v>
+        <v>5.655965279376537</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.54709154927247</v>
+        <v>7.46006344837349</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.98917632677414</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.59061254274564</v>
+        <v>19.99827081350865</v>
       </c>
       <c r="C5">
-        <v>14.05099381043953</v>
+        <v>11.95234582896648</v>
       </c>
       <c r="D5">
-        <v>2.312774350326926</v>
+        <v>3.846687871404033</v>
       </c>
       <c r="E5">
-        <v>5.490943269041899</v>
+        <v>6.718027622306974</v>
       </c>
       <c r="F5">
-        <v>43.52640933766187</v>
+        <v>27.30988109737343</v>
       </c>
       <c r="G5">
-        <v>2.154420803650175</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>35.33248605094496</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.464949116653725</v>
       </c>
       <c r="J5">
-        <v>5.843618601101435</v>
+        <v>11.90168917985859</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.28211295763711</v>
       </c>
       <c r="L5">
-        <v>7.601138673893312</v>
+        <v>5.664284286999839</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.60752925729051</v>
+        <v>7.412832221119467</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>13.0340074209646</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.51821820446541</v>
+        <v>19.92499371254393</v>
       </c>
       <c r="C6">
-        <v>14.00062101218425</v>
+        <v>11.92010392914501</v>
       </c>
       <c r="D6">
-        <v>2.311848187300866</v>
+        <v>3.84658311941911</v>
       </c>
       <c r="E6">
-        <v>5.491517284492723</v>
+        <v>6.718660993590469</v>
       </c>
       <c r="F6">
-        <v>43.47115282591255</v>
+        <v>27.26986946739238</v>
       </c>
       <c r="G6">
-        <v>2.155006541421143</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>35.25831668418174</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.480076766518875</v>
       </c>
       <c r="J6">
-        <v>5.846045133121151</v>
+        <v>11.89281903398194</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.26976496852235</v>
       </c>
       <c r="L6">
-        <v>7.594583513812478</v>
+        <v>5.665374883417976</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.61762943306465</v>
+        <v>7.406644063615721</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>13.04164485141613</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27.01893294876589</v>
+        <v>20.36278646568922</v>
       </c>
       <c r="C7">
-        <v>14.35221258579519</v>
+        <v>12.20540447845352</v>
       </c>
       <c r="D7">
-        <v>2.318603008560224</v>
+        <v>3.857239922396274</v>
       </c>
       <c r="E7">
-        <v>5.487606330174004</v>
+        <v>6.711726581061199</v>
       </c>
       <c r="F7">
-        <v>43.85720763041995</v>
+        <v>27.44271895515663</v>
       </c>
       <c r="G7">
-        <v>2.150957449430129</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>35.58297452290981</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.406788554904257</v>
       </c>
       <c r="J7">
-        <v>5.829300470981956</v>
+        <v>11.91940853711223</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.2808860171116</v>
       </c>
       <c r="L7">
-        <v>7.640427997789716</v>
+        <v>5.65526403375392</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.54790230243588</v>
+        <v>7.463813567351618</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.99028320008436</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.18182459308722</v>
+        <v>22.21154296642803</v>
       </c>
       <c r="C8">
-        <v>15.90248398090213</v>
+        <v>13.38310548766683</v>
       </c>
       <c r="D8">
-        <v>2.470200646505399</v>
+        <v>3.904146136348308</v>
       </c>
       <c r="E8">
-        <v>5.472214434255446</v>
+        <v>6.685182026699866</v>
       </c>
       <c r="F8">
-        <v>45.62305764130519</v>
+        <v>28.25724297420984</v>
       </c>
       <c r="G8">
-        <v>2.133472018098558</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>37.08362127863369</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.087050327053941</v>
       </c>
       <c r="J8">
-        <v>5.757778984398102</v>
+        <v>12.05912654192705</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.3702460915037</v>
       </c>
       <c r="L8">
-        <v>7.851241802307181</v>
+        <v>5.61278801917925</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.24965029208985</v>
+        <v>7.715996771892904</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.76839164382188</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.24050987540902</v>
+        <v>25.49177247573557</v>
       </c>
       <c r="C9">
-        <v>18.68874513583487</v>
+        <v>15.4412578601236</v>
       </c>
       <c r="D9">
-        <v>2.871605079621742</v>
+        <v>4.000777223658635</v>
       </c>
       <c r="E9">
-        <v>5.449332418904884</v>
+        <v>6.646612750772805</v>
       </c>
       <c r="F9">
-        <v>49.31327505727334</v>
+        <v>29.97431916116064</v>
       </c>
       <c r="G9">
-        <v>2.100256516814701</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>40.14228684573294</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.489124736502853</v>
       </c>
       <c r="J9">
-        <v>5.625414721793157</v>
+        <v>12.39615011500826</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.65538985350304</v>
       </c>
       <c r="L9">
-        <v>8.29535821177358</v>
+        <v>5.53561753218913</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.69965051311536</v>
+        <v>8.214171561655306</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.34948036790179</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.10871639130092</v>
+        <v>27.65982871756201</v>
       </c>
       <c r="C10">
-        <v>20.59483338771906</v>
+        <v>16.83015279622503</v>
       </c>
       <c r="D10">
-        <v>3.159380241051526</v>
+        <v>4.079123780151963</v>
       </c>
       <c r="E10">
-        <v>5.437683431737439</v>
+        <v>6.625481529235596</v>
       </c>
       <c r="F10">
-        <v>52.17272787278805</v>
+        <v>31.25189346899694</v>
       </c>
       <c r="G10">
-        <v>2.076173487739319</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>42.3553028164276</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.87345169341626</v>
       </c>
       <c r="J10">
-        <v>5.532304806183387</v>
+        <v>12.66612179057352</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.89900319134348</v>
       </c>
       <c r="L10">
-        <v>8.641040609274043</v>
+        <v>5.481273496619323</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.3183859491386</v>
+        <v>8.585748609921053</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.05239702209245</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.39078408853082</v>
+        <v>28.57045226209312</v>
       </c>
       <c r="C11">
-        <v>21.43513952084826</v>
+        <v>17.45732105713265</v>
       </c>
       <c r="D11">
-        <v>3.289754837835623</v>
+        <v>4.120617825743104</v>
       </c>
       <c r="E11">
-        <v>5.433709491405283</v>
+        <v>6.616236754244291</v>
       </c>
       <c r="F11">
-        <v>53.50983807016825</v>
+        <v>31.79152093834088</v>
       </c>
       <c r="G11">
-        <v>2.065198359868872</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>43.27684868926453</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.058009967290287</v>
       </c>
       <c r="J11">
-        <v>5.490673999334856</v>
+        <v>12.77820286029921</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.98348930173619</v>
       </c>
       <c r="L11">
-        <v>8.802837364972662</v>
+        <v>5.45590241369308</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.15046265634967</v>
+        <v>8.760989883952984</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>11.92186513555369</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.8733275807655</v>
+        <v>28.92181834340463</v>
       </c>
       <c r="C12">
-        <v>21.74987016262726</v>
+        <v>17.67807054615309</v>
       </c>
       <c r="D12">
-        <v>3.339150802014756</v>
+        <v>4.134021253549097</v>
       </c>
       <c r="E12">
-        <v>5.43241691414077</v>
+        <v>6.613713161988387</v>
       </c>
       <c r="F12">
-        <v>54.02190496699983</v>
+        <v>32.02214842037716</v>
       </c>
       <c r="G12">
-        <v>2.061030739589955</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>43.6692192353649</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.125214714645089</v>
       </c>
       <c r="J12">
-        <v>5.47499744719089</v>
+        <v>12.83070449196064</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>19.03701489102119</v>
       </c>
       <c r="L12">
-        <v>8.864802401791014</v>
+        <v>5.447019016254943</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.087737613893</v>
+        <v>8.824056566762188</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>11.87144967102274</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.76952784844821</v>
+        <v>28.84916827120644</v>
       </c>
       <c r="C13">
-        <v>21.6822351658089</v>
+        <v>17.62820184076235</v>
       </c>
       <c r="D13">
-        <v>3.328509499177681</v>
+        <v>4.130631647315856</v>
       </c>
       <c r="E13">
-        <v>5.43268545804094</v>
+        <v>6.614390615693996</v>
       </c>
       <c r="F13">
-        <v>53.911357311958</v>
+        <v>31.97750846641782</v>
       </c>
       <c r="G13">
-        <v>2.061928980822457</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>43.59345710495541</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.110272370420946</v>
       </c>
       <c r="J13">
-        <v>5.478370034791643</v>
+        <v>12.82117765992329</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>19.0293919361686</v>
       </c>
       <c r="L13">
-        <v>8.851425304382149</v>
+        <v>5.449058114966391</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.10120679522345</v>
+        <v>8.809828673503846</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>11.88202197169985</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.43054002492551</v>
+        <v>28.60066036255584</v>
       </c>
       <c r="C14">
-        <v>21.46109986380676</v>
+        <v>17.47448963404964</v>
       </c>
       <c r="D14">
-        <v>3.293817496136191</v>
+        <v>4.121506067710805</v>
       </c>
       <c r="E14">
-        <v>5.433598755479071</v>
+        <v>6.616085762494238</v>
       </c>
       <c r="F14">
-        <v>53.55184771571177</v>
+        <v>31.81264041516208</v>
       </c>
       <c r="G14">
-        <v>2.064855774481488</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>43.31286486475142</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.063328763804214</v>
       </c>
       <c r="J14">
-        <v>5.489382614163867</v>
+        <v>12.78327945065025</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.98955268491298</v>
       </c>
       <c r="L14">
-        <v>8.807921011172825</v>
+        <v>5.455225041883693</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.14528443448557</v>
+        <v>8.765902745052525</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>11.91759748586322</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.22252795520083</v>
+        <v>28.44210159306088</v>
       </c>
       <c r="C15">
-        <v>21.32520779506089</v>
+        <v>17.38483232162498</v>
       </c>
       <c r="D15">
-        <v>3.272574398422969</v>
+        <v>4.116919948133878</v>
       </c>
       <c r="E15">
-        <v>5.434186541698814</v>
+        <v>6.616871100586401</v>
       </c>
       <c r="F15">
-        <v>53.33240220993932</v>
+        <v>31.70169020868523</v>
       </c>
       <c r="G15">
-        <v>2.066646728489848</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>43.12355195583067</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.0356217734941</v>
       </c>
       <c r="J15">
-        <v>5.496139096969624</v>
+        <v>12.75658121173225</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.9575054763096</v>
       </c>
       <c r="L15">
-        <v>8.781365577198766</v>
+        <v>5.458757172851727</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.17239822434148</v>
+        <v>8.740280833000028</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>11.93994798649599</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.02449758034614</v>
+        <v>27.5528743447469</v>
       </c>
       <c r="C16">
-        <v>20.53940923478293</v>
+        <v>16.8317927146784</v>
       </c>
       <c r="D16">
-        <v>3.150857557860499</v>
+        <v>4.084756168179131</v>
       </c>
       <c r="E16">
-        <v>5.437971560051066</v>
+        <v>6.623708072537796</v>
       </c>
       <c r="F16">
-        <v>52.08611528674689</v>
+        <v>31.13095838384807</v>
       </c>
       <c r="G16">
-        <v>2.076889625908433</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>42.14658671529576</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.869786580851909</v>
       </c>
       <c r="J16">
-        <v>5.535038739054947</v>
+        <v>12.62833726343482</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.82716035176734</v>
       </c>
       <c r="L16">
-        <v>8.630561535728756</v>
+        <v>5.480778673152247</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.32947669727579</v>
+        <v>8.585302441254896</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.06513063428219</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.28391577111119</v>
+        <v>26.99434917756997</v>
       </c>
       <c r="C17">
-        <v>20.05073631024064</v>
+        <v>16.48553280695889</v>
       </c>
       <c r="D17">
-        <v>3.076118592226197</v>
+        <v>4.065318230508952</v>
       </c>
       <c r="E17">
-        <v>5.440647059481144</v>
+        <v>6.628359196737017</v>
       </c>
       <c r="F17">
-        <v>51.3311740363346</v>
+        <v>30.78231680102549</v>
       </c>
       <c r="G17">
-        <v>2.083162475927721</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>41.5461131957664</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.767635516750125</v>
       </c>
       <c r="J17">
-        <v>5.55907733780193</v>
+        <v>12.55137173816009</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.75025861805723</v>
       </c>
       <c r="L17">
-        <v>8.539237463790265</v>
+        <v>5.494435169783158</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.42729596114074</v>
+        <v>8.490237051866774</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.14237112548862</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.85578997094849</v>
+        <v>26.68277702891521</v>
       </c>
       <c r="C18">
-        <v>19.76711773697986</v>
+        <v>16.27027941381466</v>
       </c>
       <c r="D18">
-        <v>3.033073116736905</v>
+        <v>4.05169791527271</v>
       </c>
       <c r="E18">
-        <v>5.442309140742837</v>
+        <v>6.631931453601772</v>
       </c>
       <c r="F18">
-        <v>50.90033196614523</v>
+        <v>30.60876184965807</v>
       </c>
       <c r="G18">
-        <v>2.08676920307696</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>41.24625885681768</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.704914924750773</v>
       </c>
       <c r="J18">
-        <v>5.572973062134748</v>
+        <v>12.51706658480262</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.72737500977445</v>
       </c>
       <c r="L18">
-        <v>8.487134573649895</v>
+        <v>5.503003280175571</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.4840728698152</v>
+        <v>8.432174906092518</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.18576731636166</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.71045499030308</v>
+        <v>26.5653285926564</v>
       </c>
       <c r="C19">
-        <v>19.6706414591046</v>
+        <v>16.20734366010808</v>
       </c>
       <c r="D19">
-        <v>3.018485922797296</v>
+        <v>4.049069406860748</v>
       </c>
       <c r="E19">
-        <v>5.442892462654738</v>
+        <v>6.632605158827956</v>
       </c>
       <c r="F19">
-        <v>50.75502397907974</v>
+        <v>30.52976815608607</v>
       </c>
       <c r="G19">
-        <v>2.08799040894387</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>41.10935182024421</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.686483163115774</v>
       </c>
       <c r="J19">
-        <v>5.577690286765068</v>
+        <v>12.49835752688613</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.70420261639903</v>
       </c>
       <c r="L19">
-        <v>8.469565258990549</v>
+        <v>5.505406084092522</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.50338298702627</v>
+        <v>8.415138850060758</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.20141775824915</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.36297393428615</v>
+        <v>27.05542302924688</v>
       </c>
       <c r="C20">
-        <v>20.10301743413874</v>
+        <v>16.52161358054357</v>
       </c>
       <c r="D20">
-        <v>3.084079956599288</v>
+        <v>4.067176830796964</v>
       </c>
       <c r="E20">
-        <v>5.440349353629345</v>
+        <v>6.627904273624462</v>
       </c>
       <c r="F20">
-        <v>51.41118583653744</v>
+        <v>30.82142957028965</v>
       </c>
       <c r="G20">
-        <v>2.082494908775594</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>41.61364371423992</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.778228563691882</v>
       </c>
       <c r="J20">
-        <v>5.556511320031777</v>
+        <v>12.56023094069032</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.75991588269138</v>
       </c>
       <c r="L20">
-        <v>8.548914895285211</v>
+        <v>5.493027265914154</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.41682930524154</v>
+        <v>8.500090670773726</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.13403437523036</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.5301857869959</v>
+        <v>28.65865314114915</v>
       </c>
       <c r="C21">
-        <v>21.52614365995871</v>
+        <v>17.53382151170714</v>
       </c>
       <c r="D21">
-        <v>3.30400575930446</v>
+        <v>4.126964798492598</v>
       </c>
       <c r="E21">
-        <v>5.433324541246362</v>
+        <v>6.614765214990912</v>
       </c>
       <c r="F21">
-        <v>53.65728392293062</v>
+        <v>31.83260517336562</v>
       </c>
       <c r="G21">
-        <v>2.063996495280555</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>43.34634979160579</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.08018056925023</v>
       </c>
       <c r="J21">
-        <v>5.486145700638527</v>
+        <v>12.78415664229672</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.97888007270254</v>
       </c>
       <c r="L21">
-        <v>8.820679961843519</v>
+        <v>5.452686493922176</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.13231364782213</v>
+        <v>8.782442295107018</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>11.90867109954682</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.98293083791683</v>
+        <v>29.69260270463402</v>
       </c>
       <c r="C22">
-        <v>22.43620643948296</v>
+        <v>18.15488920874506</v>
       </c>
       <c r="D22">
-        <v>3.44795339174402</v>
+        <v>4.163453321000095</v>
       </c>
       <c r="E22">
-        <v>5.42998428014665</v>
+        <v>6.60873746941942</v>
       </c>
       <c r="F22">
-        <v>55.15901753846997</v>
+        <v>32.53403225941271</v>
       </c>
       <c r="G22">
-        <v>2.051834082555358</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>44.53646274520679</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.272159235872732</v>
       </c>
       <c r="J22">
-        <v>5.440662218340468</v>
+        <v>12.94914295225189</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.16062591975022</v>
       </c>
       <c r="L22">
-        <v>9.002384100829353</v>
+        <v>5.427712794696773</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.95145090945091</v>
+        <v>8.962233150629796</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>11.76082113672305</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.18481016360702</v>
+        <v>29.1584399113027</v>
       </c>
       <c r="C23">
-        <v>21.952180256176</v>
+        <v>17.80866701218089</v>
       </c>
       <c r="D23">
-        <v>3.371067123090335</v>
+        <v>4.140552261951886</v>
       </c>
       <c r="E23">
-        <v>5.431644162590868</v>
+        <v>6.612795629428605</v>
       </c>
       <c r="F23">
-        <v>54.35420882621302</v>
+        <v>32.1933778933175</v>
       </c>
       <c r="G23">
-        <v>2.058335315558502</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>43.9603262426707</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.166637889524356</v>
       </c>
       <c r="J23">
-        <v>5.464897385548931</v>
+        <v>12.87285446249569</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.08952096149842</v>
       </c>
       <c r="L23">
-        <v>8.905012347913404</v>
+        <v>5.441872484697799</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.04748625143924</v>
+        <v>8.861945742712738</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>11.83774028600054</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.32723909751694</v>
+        <v>27.05810632146714</v>
       </c>
       <c r="C24">
-        <v>20.07938949442348</v>
+        <v>16.47708007800716</v>
       </c>
       <c r="D24">
-        <v>3.080480871241789</v>
+        <v>4.060966766746563</v>
       </c>
       <c r="E24">
-        <v>5.440483562081202</v>
+        <v>6.629656569711477</v>
       </c>
       <c r="F24">
-        <v>51.37500262116874</v>
+        <v>30.85926795297825</v>
       </c>
       <c r="G24">
-        <v>2.082796714055056</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>41.67944221673356</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.766670160267764</v>
       </c>
       <c r="J24">
-        <v>5.557671179959187</v>
+        <v>12.57593103019969</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.79832583553406</v>
       </c>
       <c r="L24">
-        <v>8.544538483913747</v>
+        <v>5.495054777192642</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.4215596056529</v>
+        <v>8.488494832456391</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.13522101731906</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.16275838496882</v>
+        <v>24.61363595189754</v>
       </c>
       <c r="C25">
-        <v>17.96087606118451</v>
+        <v>14.93750516785139</v>
       </c>
       <c r="D25">
-        <v>2.764564157563361</v>
+        <v>3.978913897569013</v>
       </c>
       <c r="E25">
-        <v>5.454675410878427</v>
+        <v>6.654227747338995</v>
       </c>
       <c r="F25">
-        <v>48.2899326024648</v>
+        <v>29.44778928257334</v>
       </c>
       <c r="G25">
-        <v>2.109159116714129</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>39.21671632860107</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.665289576817261</v>
       </c>
       <c r="J25">
-        <v>5.66044324855872</v>
+        <v>12.28066494565975</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.5284427800831</v>
       </c>
       <c r="L25">
-        <v>8.171882332092094</v>
+        <v>5.55462078617288</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.84458065870362</v>
+        <v>8.085824343311366</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.46298252737008</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.71375940192628</v>
+        <v>22.06182165902536</v>
       </c>
       <c r="C2">
-        <v>13.66187461486063</v>
+        <v>14.12567599713915</v>
       </c>
       <c r="D2">
-        <v>3.913296586975203</v>
+        <v>4.03564757146369</v>
       </c>
       <c r="E2">
-        <v>6.679966926571137</v>
+        <v>6.585703127372152</v>
       </c>
       <c r="F2">
-        <v>28.5277346215917</v>
+        <v>27.26016528153992</v>
       </c>
       <c r="G2">
-        <v>37.57238657638746</v>
+        <v>35.03013606556564</v>
       </c>
       <c r="I2">
-        <v>2.990107620799491</v>
+        <v>2.8656861822368</v>
       </c>
       <c r="J2">
-        <v>12.11536526747746</v>
+        <v>11.95872157517254</v>
       </c>
       <c r="K2">
-        <v>18.43205510645643</v>
+        <v>17.36158010551534</v>
       </c>
       <c r="L2">
-        <v>5.602712695569277</v>
+        <v>14.31408291272304</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.46864863389601</v>
       </c>
       <c r="N2">
-        <v>7.779273135499563</v>
+        <v>5.509139113534565</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.70835354173266</v>
+        <v>7.959857334373169</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.61603203503712</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.30245384051008</v>
+        <v>20.70577018219319</v>
       </c>
       <c r="C3">
-        <v>12.76645258456018</v>
+        <v>13.15918905664897</v>
       </c>
       <c r="D3">
-        <v>3.875928257105187</v>
+        <v>3.993340630787966</v>
       </c>
       <c r="E3">
-        <v>6.699198820863335</v>
+        <v>6.609005507737212</v>
       </c>
       <c r="F3">
-        <v>27.87211646107584</v>
+        <v>26.69415853809568</v>
       </c>
       <c r="G3">
-        <v>36.37716422515649</v>
+        <v>34.04151717570558</v>
       </c>
       <c r="I3">
-        <v>3.23811959523674</v>
+        <v>3.079014961220178</v>
       </c>
       <c r="J3">
-        <v>11.9977917810553</v>
+        <v>11.82119880977568</v>
       </c>
       <c r="K3">
-        <v>18.34821675751577</v>
+        <v>17.33879294150723</v>
       </c>
       <c r="L3">
-        <v>5.635329358767468</v>
+        <v>14.3835864283249</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.36652781572404</v>
       </c>
       <c r="N3">
-        <v>7.580430823931207</v>
+        <v>5.539211705558428</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.88091661330088</v>
+        <v>7.745426591886237</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.75582199767013</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.38869811750406</v>
+        <v>19.82533380324226</v>
       </c>
       <c r="C4">
-        <v>12.18873865981206</v>
+        <v>12.53457060751335</v>
       </c>
       <c r="D4">
-        <v>3.854265076754204</v>
+        <v>3.968977882345146</v>
       </c>
       <c r="E4">
-        <v>6.71249266131631</v>
+        <v>6.624791135037482</v>
       </c>
       <c r="F4">
-        <v>27.47813412344764</v>
+        <v>26.35269029514919</v>
       </c>
       <c r="G4">
-        <v>35.64686669938564</v>
+        <v>33.44215063248377</v>
       </c>
       <c r="I4">
-        <v>3.396212252199803</v>
+        <v>3.215477739525579</v>
       </c>
       <c r="J4">
-        <v>11.93094953175413</v>
+        <v>11.73778137705538</v>
       </c>
       <c r="K4">
-        <v>18.3048901387299</v>
+        <v>17.33047104465248</v>
       </c>
       <c r="L4">
-        <v>5.655965279376537</v>
+        <v>14.42455610765946</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.3286416840032</v>
       </c>
       <c r="N4">
-        <v>7.46006344837349</v>
+        <v>5.558216499335311</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.98917632677414</v>
+        <v>7.615204308321314</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.84450385319705</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.99827081350865</v>
+        <v>19.4483817879693</v>
       </c>
       <c r="C5">
-        <v>11.95234582896648</v>
+        <v>12.27828210511375</v>
       </c>
       <c r="D5">
-        <v>3.846687871404033</v>
+        <v>3.96041196727068</v>
       </c>
       <c r="E5">
-        <v>6.718027622306974</v>
+        <v>6.63135981372197</v>
       </c>
       <c r="F5">
-        <v>27.30988109737343</v>
+        <v>26.20540941751599</v>
       </c>
       <c r="G5">
-        <v>35.33248605094496</v>
+        <v>33.18244268436923</v>
       </c>
       <c r="I5">
-        <v>3.464949116653725</v>
+        <v>3.275753739363064</v>
       </c>
       <c r="J5">
-        <v>11.90168917985859</v>
+        <v>11.70073380747051</v>
       </c>
       <c r="K5">
-        <v>18.28211295763711</v>
+        <v>17.3216983467027</v>
       </c>
       <c r="L5">
-        <v>5.664284286999839</v>
+        <v>14.43487073528364</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.31514815329125</v>
       </c>
       <c r="N5">
-        <v>7.412832221119467</v>
+        <v>5.565884855604375</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>13.0340074209646</v>
+        <v>7.563870967119654</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.88169979037182</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.92499371254393</v>
+        <v>19.37744721742884</v>
       </c>
       <c r="C6">
-        <v>11.92010392914501</v>
+        <v>12.24273826290761</v>
       </c>
       <c r="D6">
-        <v>3.84658311941911</v>
+        <v>3.960178826360709</v>
       </c>
       <c r="E6">
-        <v>6.718660993590469</v>
+        <v>6.632188821808922</v>
       </c>
       <c r="F6">
-        <v>27.26986946739238</v>
+        <v>26.16913408572222</v>
       </c>
       <c r="G6">
-        <v>35.25831668418174</v>
+        <v>33.11792299511682</v>
       </c>
       <c r="I6">
-        <v>3.480076766518875</v>
+        <v>3.29006011586026</v>
       </c>
       <c r="J6">
-        <v>11.89281903398194</v>
+        <v>11.69053744626064</v>
       </c>
       <c r="K6">
-        <v>18.26976496852235</v>
+        <v>17.3120764726821</v>
       </c>
       <c r="L6">
-        <v>5.665374883417976</v>
+        <v>14.42929926902417</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.30805617494689</v>
       </c>
       <c r="N6">
-        <v>7.406644063615721</v>
+        <v>5.566905343888415</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>13.04164485141613</v>
+        <v>7.55696431206136</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.88834628620973</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.36278646568922</v>
+        <v>19.79069276213028</v>
       </c>
       <c r="C7">
-        <v>12.20540447845352</v>
+        <v>12.53657012807809</v>
       </c>
       <c r="D7">
-        <v>3.857239922396274</v>
+        <v>3.975755565239389</v>
       </c>
       <c r="E7">
-        <v>6.711726581061199</v>
+        <v>6.625448855923723</v>
       </c>
       <c r="F7">
-        <v>27.44271895515663</v>
+        <v>26.29794016563748</v>
       </c>
       <c r="G7">
-        <v>35.58297452290981</v>
+        <v>33.45815434827903</v>
       </c>
       <c r="I7">
-        <v>3.406788554904257</v>
+        <v>3.228357325753697</v>
       </c>
       <c r="J7">
-        <v>11.91940853711223</v>
+        <v>11.67460820023344</v>
       </c>
       <c r="K7">
-        <v>18.2808860171116</v>
+        <v>17.29787030874202</v>
       </c>
       <c r="L7">
-        <v>5.65526403375392</v>
+        <v>14.39651817632545</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.30731859611288</v>
       </c>
       <c r="N7">
-        <v>7.463813567351618</v>
+        <v>5.557603535100005</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.99028320008436</v>
+        <v>7.617782962008239</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.84692613942804</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.21154296642803</v>
+        <v>21.5507489406191</v>
       </c>
       <c r="C8">
-        <v>13.38310548766683</v>
+        <v>13.77872550324656</v>
       </c>
       <c r="D8">
-        <v>3.904146136348308</v>
+        <v>4.037174941811011</v>
       </c>
       <c r="E8">
-        <v>6.685182026699866</v>
+        <v>6.596901579007175</v>
       </c>
       <c r="F8">
-        <v>28.25724297420984</v>
+        <v>26.95605624245228</v>
       </c>
       <c r="G8">
-        <v>37.08362127863369</v>
+        <v>34.86393877453371</v>
       </c>
       <c r="I8">
-        <v>3.087050327053941</v>
+        <v>2.955448818988181</v>
       </c>
       <c r="J8">
-        <v>12.05912654192705</v>
+        <v>11.72848119124188</v>
       </c>
       <c r="K8">
-        <v>18.3702460915037</v>
+        <v>17.290171079897</v>
       </c>
       <c r="L8">
-        <v>5.61278801917925</v>
+        <v>14.28722934507314</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.38419154408323</v>
       </c>
       <c r="N8">
-        <v>7.715996771892904</v>
+        <v>5.51848425983762</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.76839164382188</v>
+        <v>7.887774329623632</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.66845235953226</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.49177247573557</v>
+        <v>24.68700200603644</v>
       </c>
       <c r="C9">
-        <v>15.4412578601236</v>
+        <v>15.99046508489013</v>
       </c>
       <c r="D9">
-        <v>4.000777223658635</v>
+        <v>4.150800425068251</v>
       </c>
       <c r="E9">
-        <v>6.646612750772805</v>
+        <v>6.549290849951844</v>
       </c>
       <c r="F9">
-        <v>29.97431916116064</v>
+        <v>28.42209377234596</v>
       </c>
       <c r="G9">
-        <v>40.14228684573294</v>
+        <v>37.48196072147139</v>
       </c>
       <c r="I9">
-        <v>2.489124736502853</v>
+        <v>2.52370731320075</v>
       </c>
       <c r="J9">
-        <v>12.39615011500826</v>
+        <v>12.04878033920286</v>
       </c>
       <c r="K9">
-        <v>18.65538985350304</v>
+        <v>17.39912187234658</v>
       </c>
       <c r="L9">
-        <v>5.53561753218913</v>
+        <v>14.12334561100263</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.78417219682076</v>
       </c>
       <c r="N9">
-        <v>8.214171561655306</v>
+        <v>5.44719316539901</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.34948036790179</v>
+        <v>8.4220415318959</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.3358213330286</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.65982871756201</v>
+        <v>26.70731073604895</v>
       </c>
       <c r="C10">
-        <v>16.83015279622503</v>
+        <v>17.41250479721517</v>
       </c>
       <c r="D10">
-        <v>4.079123780151963</v>
+        <v>4.264087152719121</v>
       </c>
       <c r="E10">
-        <v>6.625481529235596</v>
+        <v>6.529575435323966</v>
       </c>
       <c r="F10">
-        <v>31.25189346899694</v>
+        <v>29.40009195476885</v>
       </c>
       <c r="G10">
-        <v>42.3553028164276</v>
+        <v>39.7934429918696</v>
       </c>
       <c r="I10">
-        <v>2.87345169341626</v>
+        <v>2.867587513770549</v>
       </c>
       <c r="J10">
-        <v>12.66612179057352</v>
+        <v>12.00385187253112</v>
       </c>
       <c r="K10">
-        <v>18.89900319134348</v>
+        <v>17.44535318105798</v>
       </c>
       <c r="L10">
-        <v>5.481273496619323</v>
+        <v>13.94703228576756</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.14017614874548</v>
       </c>
       <c r="N10">
-        <v>8.585748609921053</v>
+        <v>5.396973753778256</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.05239702209245</v>
+        <v>8.812060184726459</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.11379152818005</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.57045226209312</v>
+        <v>27.48111385762091</v>
       </c>
       <c r="C11">
-        <v>17.45732105713265</v>
+        <v>17.94401812075512</v>
       </c>
       <c r="D11">
-        <v>4.120617825743104</v>
+        <v>4.359680430921411</v>
       </c>
       <c r="E11">
-        <v>6.616236754244291</v>
+        <v>6.535886067701228</v>
       </c>
       <c r="F11">
-        <v>31.79152093834088</v>
+        <v>29.61810146132601</v>
       </c>
       <c r="G11">
-        <v>43.27684868926453</v>
+        <v>41.4509143784475</v>
       </c>
       <c r="I11">
-        <v>3.058009967290287</v>
+        <v>3.020823938207745</v>
       </c>
       <c r="J11">
-        <v>12.77820286029921</v>
+        <v>11.49127213687251</v>
       </c>
       <c r="K11">
-        <v>18.98348930173619</v>
+        <v>17.34079122575675</v>
       </c>
       <c r="L11">
-        <v>5.45590241369308</v>
+        <v>13.77220215612456</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.21591459106763</v>
       </c>
       <c r="N11">
-        <v>8.760989883952984</v>
+        <v>5.373783360379868</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.92186513555369</v>
+        <v>8.984891515353571</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.0342542699013</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.92181834340463</v>
+        <v>27.77231293452485</v>
       </c>
       <c r="C12">
-        <v>17.67807054615309</v>
+        <v>18.11612890536456</v>
       </c>
       <c r="D12">
-        <v>4.134021253549097</v>
+        <v>4.398475064680227</v>
       </c>
       <c r="E12">
-        <v>6.613713161988387</v>
+        <v>6.541330577849378</v>
       </c>
       <c r="F12">
-        <v>32.02214842037716</v>
+        <v>29.70335230937735</v>
       </c>
       <c r="G12">
-        <v>43.6692192353649</v>
+        <v>42.20369629133268</v>
       </c>
       <c r="I12">
-        <v>3.125214714645089</v>
+        <v>3.074468829588799</v>
       </c>
       <c r="J12">
-        <v>12.83070449196064</v>
+        <v>11.25160469421616</v>
       </c>
       <c r="K12">
-        <v>19.03701489102119</v>
+        <v>17.30833766429392</v>
       </c>
       <c r="L12">
-        <v>5.447019016254943</v>
+        <v>13.7109955062071</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.25206024350846</v>
       </c>
       <c r="N12">
-        <v>8.824056566762188</v>
+        <v>5.365636929631391</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.87144967102274</v>
+        <v>9.045758932368923</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.00457361519036</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.84916827120644</v>
+        <v>27.71290653485266</v>
       </c>
       <c r="C13">
-        <v>17.62820184076235</v>
+        <v>18.07728272535046</v>
       </c>
       <c r="D13">
-        <v>4.130631647315856</v>
+        <v>4.389358401117544</v>
       </c>
       <c r="E13">
-        <v>6.614390615693996</v>
+        <v>6.540184418193591</v>
       </c>
       <c r="F13">
-        <v>31.97750846641782</v>
+        <v>29.69085978038379</v>
       </c>
       <c r="G13">
-        <v>43.59345710495541</v>
+        <v>42.0464351961932</v>
       </c>
       <c r="I13">
-        <v>3.110272370420946</v>
+        <v>3.062232373238707</v>
       </c>
       <c r="J13">
-        <v>12.82117765992329</v>
+        <v>11.30713490465586</v>
       </c>
       <c r="K13">
-        <v>19.0293919361686</v>
+        <v>17.3195186908609</v>
       </c>
       <c r="L13">
-        <v>5.449058114966391</v>
+        <v>13.72712392994204</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.24762980661217</v>
       </c>
       <c r="N13">
-        <v>8.809828673503846</v>
+        <v>5.367489654595359</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11.88202197169985</v>
+        <v>9.032082881057601</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.01034342989867</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.60066036255584</v>
+        <v>27.50650270379156</v>
       </c>
       <c r="C14">
-        <v>17.47448963404964</v>
+        <v>17.95743181428356</v>
       </c>
       <c r="D14">
-        <v>4.121506067710805</v>
+        <v>4.362543084701453</v>
       </c>
       <c r="E14">
-        <v>6.616085762494238</v>
+        <v>6.536342618601597</v>
       </c>
       <c r="F14">
-        <v>31.81264041516208</v>
+        <v>29.62764293605851</v>
       </c>
       <c r="G14">
-        <v>43.31286486475142</v>
+        <v>41.51483932784469</v>
       </c>
       <c r="I14">
-        <v>3.063328763804214</v>
+        <v>3.024935738499089</v>
       </c>
       <c r="J14">
-        <v>12.78327945065025</v>
+        <v>11.47329686587745</v>
       </c>
       <c r="K14">
-        <v>18.98955268491298</v>
+        <v>17.33991938414109</v>
       </c>
       <c r="L14">
-        <v>5.455225041883693</v>
+        <v>13.76843670736481</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.22032180508755</v>
       </c>
       <c r="N14">
-        <v>8.765902745052525</v>
+        <v>5.373154901547045</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>11.91759748586322</v>
+        <v>8.989658117487899</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.03155016248456</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.44210159306088</v>
+        <v>27.37282849077785</v>
       </c>
       <c r="C15">
-        <v>17.38483232162498</v>
+        <v>17.88691299511047</v>
       </c>
       <c r="D15">
-        <v>4.116919948133878</v>
+        <v>4.347839136252968</v>
       </c>
       <c r="E15">
-        <v>6.616871100586401</v>
+        <v>6.534040761315146</v>
       </c>
       <c r="F15">
-        <v>31.70169020868523</v>
+        <v>29.57633079250321</v>
       </c>
       <c r="G15">
-        <v>43.12355195583067</v>
+        <v>41.18295713359373</v>
       </c>
       <c r="I15">
-        <v>3.0356217734941</v>
+        <v>3.003552161046666</v>
       </c>
       <c r="J15">
-        <v>12.75658121173225</v>
+        <v>11.56494186759493</v>
       </c>
       <c r="K15">
-        <v>18.9575054763096</v>
+        <v>17.3436314519908</v>
       </c>
       <c r="L15">
-        <v>5.458757172851727</v>
+        <v>13.78750803069072</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.19666330787565</v>
       </c>
       <c r="N15">
-        <v>8.740280833000028</v>
+        <v>5.376435335152947</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.93994798649599</v>
+        <v>8.964743764131027</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.04583772059853</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.5528743447469</v>
+        <v>26.60931193489055</v>
       </c>
       <c r="C16">
-        <v>16.8317927146784</v>
+        <v>17.41869345985926</v>
       </c>
       <c r="D16">
-        <v>4.084756168179131</v>
+        <v>4.267212104657937</v>
       </c>
       <c r="E16">
-        <v>6.623708072537796</v>
+        <v>6.527222805429473</v>
       </c>
       <c r="F16">
-        <v>31.13095838384807</v>
+        <v>29.29993435987117</v>
       </c>
       <c r="G16">
-        <v>42.14658671529576</v>
+        <v>39.55131277953093</v>
       </c>
       <c r="I16">
-        <v>2.869786580851909</v>
+        <v>2.869666090841447</v>
       </c>
       <c r="J16">
-        <v>12.62833726343482</v>
+        <v>12.00139735105105</v>
       </c>
       <c r="K16">
-        <v>18.82716035176734</v>
+        <v>17.38872055119183</v>
       </c>
       <c r="L16">
-        <v>5.480778673152247</v>
+        <v>13.91281032674887</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.08429073266294</v>
       </c>
       <c r="N16">
-        <v>8.585302441254896</v>
+        <v>5.396755682392565</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.06513063428219</v>
+        <v>8.811323193243533</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.12667846081999</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.99434917756997</v>
+        <v>26.11356848549425</v>
       </c>
       <c r="C17">
-        <v>16.48553280695889</v>
+        <v>17.10195534471016</v>
       </c>
       <c r="D17">
-        <v>4.065318230508952</v>
+        <v>4.226383553952139</v>
       </c>
       <c r="E17">
-        <v>6.628359196737017</v>
+        <v>6.52687211458936</v>
       </c>
       <c r="F17">
-        <v>30.78231680102549</v>
+        <v>29.09227522060673</v>
       </c>
       <c r="G17">
-        <v>41.5461131957664</v>
+        <v>38.69418397832588</v>
       </c>
       <c r="I17">
-        <v>2.767635516750125</v>
+        <v>2.785945047279569</v>
       </c>
       <c r="J17">
-        <v>12.55137173816009</v>
+        <v>12.17030027602698</v>
       </c>
       <c r="K17">
-        <v>18.75025861805723</v>
+        <v>17.39722978341278</v>
       </c>
       <c r="L17">
-        <v>5.494435169783158</v>
+        <v>13.97503925571517</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.00348579569239</v>
       </c>
       <c r="N17">
-        <v>8.490237051866774</v>
+        <v>5.409397134087</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.14237112548862</v>
+        <v>8.714887355468171</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.1803428067373</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.68277702891521</v>
+        <v>25.83248573097742</v>
       </c>
       <c r="C18">
-        <v>16.27027941381466</v>
+        <v>16.89527286373603</v>
       </c>
       <c r="D18">
-        <v>4.05169791527271</v>
+        <v>4.203263774648677</v>
       </c>
       <c r="E18">
-        <v>6.631931453601772</v>
+        <v>6.528640803758931</v>
       </c>
       <c r="F18">
-        <v>30.60876184965807</v>
+        <v>28.98472591485585</v>
       </c>
       <c r="G18">
-        <v>41.24625885681768</v>
+        <v>38.29802767844986</v>
       </c>
       <c r="I18">
-        <v>2.704914924750773</v>
+        <v>2.732045349414344</v>
       </c>
       <c r="J18">
-        <v>12.51706658480262</v>
+        <v>12.23980425380704</v>
       </c>
       <c r="K18">
-        <v>18.72737500977445</v>
+        <v>17.41429215212182</v>
       </c>
       <c r="L18">
-        <v>5.503003280175571</v>
+        <v>14.01931508133528</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.96813389239612</v>
       </c>
       <c r="N18">
-        <v>8.432174906092518</v>
+        <v>5.417260403555537</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.18576731636166</v>
+        <v>8.655293898457927</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.21046571127688</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.5653285926564</v>
+        <v>25.72471616456205</v>
       </c>
       <c r="C19">
-        <v>16.20734366010808</v>
+        <v>16.83381783200412</v>
       </c>
       <c r="D19">
-        <v>4.049069406860748</v>
+        <v>4.197973137436972</v>
       </c>
       <c r="E19">
-        <v>6.632605158827956</v>
+        <v>6.528931960412203</v>
       </c>
       <c r="F19">
-        <v>30.52976815608607</v>
+        <v>28.92632169043818</v>
       </c>
       <c r="G19">
-        <v>41.10935182024421</v>
+        <v>38.13821870348171</v>
       </c>
       <c r="I19">
-        <v>2.686483163115774</v>
+        <v>2.717528822318674</v>
       </c>
       <c r="J19">
-        <v>12.49835752688613</v>
+        <v>12.25027851116458</v>
       </c>
       <c r="K19">
-        <v>18.70420261639903</v>
+        <v>17.40435771162243</v>
       </c>
       <c r="L19">
-        <v>5.505406084092522</v>
+        <v>14.02273852887462</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.94389708660482</v>
       </c>
       <c r="N19">
-        <v>8.415138850060758</v>
+        <v>5.419519714703956</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.20141775824915</v>
+        <v>8.637540464326152</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.22249330473135</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.05542302924688</v>
+        <v>26.16847853139834</v>
       </c>
       <c r="C20">
-        <v>16.52161358054357</v>
+        <v>17.1357562692969</v>
       </c>
       <c r="D20">
-        <v>4.067176830796964</v>
+        <v>4.230208129465131</v>
       </c>
       <c r="E20">
-        <v>6.627904273624462</v>
+        <v>6.526826158026927</v>
       </c>
       <c r="F20">
-        <v>30.82142957028965</v>
+        <v>29.11779390687558</v>
       </c>
       <c r="G20">
-        <v>41.61364371423992</v>
+        <v>38.7835123732067</v>
       </c>
       <c r="I20">
-        <v>2.778228563691882</v>
+        <v>2.794516521558223</v>
       </c>
       <c r="J20">
-        <v>12.56023094069032</v>
+        <v>12.15678822313457</v>
       </c>
       <c r="K20">
-        <v>18.75991588269138</v>
+        <v>17.39850803313633</v>
       </c>
       <c r="L20">
-        <v>5.493027265914154</v>
+        <v>13.97004349256827</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.01369090392577</v>
       </c>
       <c r="N20">
-        <v>8.500090670773726</v>
+        <v>5.408087112368576</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.13403437523036</v>
+        <v>8.724978901800776</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.1743196955897</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.65865314114915</v>
+        <v>27.52737935744538</v>
       </c>
       <c r="C21">
-        <v>17.53382151170714</v>
+        <v>17.96848195471645</v>
       </c>
       <c r="D21">
-        <v>4.126964798492598</v>
+        <v>4.386771987599</v>
       </c>
       <c r="E21">
-        <v>6.614765214990912</v>
+        <v>6.541964929982144</v>
       </c>
       <c r="F21">
-        <v>31.83260517336562</v>
+        <v>29.55304712362475</v>
       </c>
       <c r="G21">
-        <v>43.34634979160579</v>
+        <v>41.86652583177445</v>
       </c>
       <c r="I21">
-        <v>3.08018056925023</v>
+        <v>3.038133525590643</v>
       </c>
       <c r="J21">
-        <v>12.78415664229672</v>
+        <v>11.25101097724724</v>
       </c>
       <c r="K21">
-        <v>18.97888007270254</v>
+        <v>17.27843441981281</v>
       </c>
       <c r="L21">
-        <v>5.452686493922176</v>
+        <v>13.71722692145105</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.18296962733946</v>
       </c>
       <c r="N21">
-        <v>8.782442295107018</v>
+        <v>5.37095324827894</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.90867109954682</v>
+        <v>9.002123004681119</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.03278626750277</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.69260270463402</v>
+        <v>28.4040699651953</v>
       </c>
       <c r="C22">
-        <v>18.15488920874506</v>
+        <v>18.46422049244502</v>
       </c>
       <c r="D22">
-        <v>4.163453321000095</v>
+        <v>4.493339575265439</v>
       </c>
       <c r="E22">
-        <v>6.60873746941942</v>
+        <v>6.558165528989717</v>
       </c>
       <c r="F22">
-        <v>32.53403225941271</v>
+        <v>29.85373572906992</v>
       </c>
       <c r="G22">
-        <v>44.53646274520679</v>
+        <v>44.01372015277367</v>
       </c>
       <c r="I22">
-        <v>3.272159235872732</v>
+        <v>3.190512544111848</v>
       </c>
       <c r="J22">
-        <v>12.94914295225189</v>
+        <v>10.63433503734974</v>
       </c>
       <c r="K22">
-        <v>19.16062591975022</v>
+        <v>17.21829515823309</v>
       </c>
       <c r="L22">
-        <v>5.427712794696773</v>
+        <v>13.5632776753562</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.3191674829059</v>
       </c>
       <c r="N22">
-        <v>8.962233150629796</v>
+        <v>5.34803697791004</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.76082113672305</v>
+        <v>9.176555447053412</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.94428352726289</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.1584399113027</v>
+        <v>27.96756663178396</v>
       </c>
       <c r="C23">
-        <v>17.80866701218089</v>
+        <v>18.21196948668893</v>
       </c>
       <c r="D23">
-        <v>4.140552261951886</v>
+        <v>4.422731630606524</v>
       </c>
       <c r="E23">
-        <v>6.612795629428605</v>
+        <v>6.546174741952409</v>
       </c>
       <c r="F23">
-        <v>32.1933778933175</v>
+        <v>29.77350904083455</v>
       </c>
       <c r="G23">
-        <v>43.9603262426707</v>
+        <v>42.74984783052984</v>
       </c>
       <c r="I23">
-        <v>3.166637889524356</v>
+        <v>3.105973848937518</v>
       </c>
       <c r="J23">
-        <v>12.87285446249569</v>
+        <v>11.08929968181586</v>
       </c>
       <c r="K23">
-        <v>19.08952096149842</v>
+        <v>17.30024311244326</v>
       </c>
       <c r="L23">
-        <v>5.441872484697799</v>
+        <v>13.68041299159498</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.28641586611008</v>
       </c>
       <c r="N23">
-        <v>8.861945742712738</v>
+        <v>5.360867852996829</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.83774028600054</v>
+        <v>9.081909345484602</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.98396707043762</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.05810632146714</v>
+        <v>26.1732403131866</v>
       </c>
       <c r="C24">
-        <v>16.47708007800716</v>
+        <v>17.09222010711805</v>
       </c>
       <c r="D24">
-        <v>4.060966766746563</v>
+        <v>4.222893721870984</v>
       </c>
       <c r="E24">
-        <v>6.629656569711477</v>
+        <v>6.528275190132171</v>
       </c>
       <c r="F24">
-        <v>30.85926795297825</v>
+        <v>29.16001004614721</v>
       </c>
       <c r="G24">
-        <v>41.67944221673356</v>
+        <v>38.8371241978794</v>
       </c>
       <c r="I24">
-        <v>2.766670160267764</v>
+        <v>2.7812586646308</v>
       </c>
       <c r="J24">
-        <v>12.57593103019969</v>
+        <v>12.18153694882129</v>
       </c>
       <c r="K24">
-        <v>18.79832583553406</v>
+        <v>17.43786548576482</v>
       </c>
       <c r="L24">
-        <v>5.495054777192642</v>
+        <v>14.00131705794148</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.0410508447676</v>
       </c>
       <c r="N24">
-        <v>8.488494832456391</v>
+        <v>5.409806914908884</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.13522101731906</v>
+        <v>8.713445524328064</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.17253079072229</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.61363595189754</v>
+        <v>23.85983589306186</v>
       </c>
       <c r="C25">
-        <v>14.93750516785139</v>
+        <v>15.46533176960988</v>
       </c>
       <c r="D25">
-        <v>3.978913897569013</v>
+        <v>4.119076955631788</v>
       </c>
       <c r="E25">
-        <v>6.654227747338995</v>
+        <v>6.557537313624034</v>
       </c>
       <c r="F25">
-        <v>29.44778928257334</v>
+        <v>27.99420976764421</v>
       </c>
       <c r="G25">
-        <v>39.21671632860107</v>
+        <v>36.57119942613969</v>
       </c>
       <c r="I25">
-        <v>2.665289576817261</v>
+        <v>2.597037623286548</v>
       </c>
       <c r="J25">
-        <v>12.28066494565975</v>
+        <v>12.01312050237651</v>
       </c>
       <c r="K25">
-        <v>18.5284427800831</v>
+        <v>17.33864334977307</v>
       </c>
       <c r="L25">
-        <v>5.55462078617288</v>
+        <v>14.14968658839024</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.63552005358146</v>
       </c>
       <c r="N25">
-        <v>8.085824343311366</v>
+        <v>5.464901288690064</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.46298252737008</v>
+        <v>8.285554829563779</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.42564445271194</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
